--- a/similarity_matrix.xlsx
+++ b/similarity_matrix.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bulut\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Okan\Documents\GitHub\network\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0651E0-22CE-44A7-A8AF-1D1CA83A1E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F2F910-B4C7-4282-8E8E-563BCE31BB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -330,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -338,7 +338,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -354,7 +353,194 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -654,17 +840,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -750,32 +936,32 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>1</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.36872643232345581</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.46585682034492493</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>0.1513722687959671</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="5">
         <v>0.60129952430725098</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="5">
         <v>0.39781743288040161</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="6">
         <v>0.40576902031898499</v>
       </c>
       <c r="J2">
@@ -836,32 +1022,32 @@
         <v>0.41905549168586731</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.36872643232345581</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3">
         <v>0.99999982118606567</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3">
         <v>0.53697234392166138</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>0.13717541098594671</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3">
         <v>0.3193306028842926</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3">
         <v>0.1242618560791016</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>0.48381438851356512</v>
       </c>
       <c r="J3">
@@ -922,32 +1108,32 @@
         <v>0.57224881649017334</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>0.46585682034492493</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4">
         <v>0.53697234392166138</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4">
         <v>0.9999997615814209</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4">
         <v>0.10435376316308979</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4">
         <v>0.38022267818450928</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4">
         <v>0.1840321272611618</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>0.36561086773872381</v>
       </c>
       <c r="J4">
@@ -1008,32 +1194,32 @@
         <v>0.47931033372879028</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>0.1513722687959671</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5">
         <v>0.13717541098594671</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5">
         <v>0.10435376316308979</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5">
         <v>0.13439363241195679</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5">
         <v>0.23799167573451999</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>0.24645340442657471</v>
       </c>
       <c r="J5">
@@ -1094,32 +1280,32 @@
         <v>0.1448071300983429</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>0.60129952430725098</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0.3193306028842926</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6">
         <v>0.38022267818450928</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6">
         <v>0.13439363241195679</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6">
         <v>1</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6">
         <v>0.44092708826065058</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>0.37503242492675781</v>
       </c>
       <c r="J6">
@@ -1180,32 +1366,32 @@
         <v>0.33245241641998291</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>0.39781743288040161</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7">
         <v>0.1242618560791016</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7">
         <v>0.1840321272611618</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>0.23799167573451999</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7">
         <v>0.44092708826065058</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7">
         <v>0.9999997615814209</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>0.17361815273761749</v>
       </c>
       <c r="J7">
@@ -1266,32 +1452,32 @@
         <v>0.1058797985315323</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>0.40576902031898499</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>0.48381438851356512</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>0.36561086773872381</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>0.24645340442657471</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="10">
         <v>0.37503242492675781</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>0.17361815273761749</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>1.0000002384185791</v>
       </c>
       <c r="J8">
@@ -1352,7 +1538,7 @@
         <v>0.36432915925979609</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1380,25 +1566,25 @@
       <c r="I9">
         <v>0.1742535978555679</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="5">
         <v>0.33011406660079962</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="5">
         <v>0.59273505210876465</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="5">
         <v>0.28369879722595209</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9" s="5">
         <v>0.27924555540084839</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9" s="5">
         <v>0.32752746343612671</v>
       </c>
-      <c r="P9" s="7">
+      <c r="P9" s="6">
         <v>0.45501202344894409</v>
       </c>
       <c r="Q9">
@@ -1438,7 +1624,7 @@
         <v>0.2262592017650604</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -1466,25 +1652,25 @@
       <c r="I10">
         <v>0.18007270991802221</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="7">
         <v>0.33011406660079962</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>1.0000002384185791</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
         <v>0.33539289236068731</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10">
         <v>0.62710630893707275</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10">
         <v>0.54956144094467163</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10">
         <v>0.49838283658027649</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>0.47067788243293762</v>
       </c>
       <c r="Q10">
@@ -1524,7 +1710,7 @@
         <v>0.30329176783561712</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
@@ -1552,25 +1738,25 @@
       <c r="I11">
         <v>0.18904960155487061</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="7">
         <v>0.59273505210876465</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>0.33539289236068731</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
         <v>0.99999988079071045</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11">
         <v>0.53888249397277832</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11">
         <v>0.35273373126983643</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11">
         <v>0.35669732093811041</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>0.60841238498687744</v>
       </c>
       <c r="Q11">
@@ -1610,7 +1796,7 @@
         <v>0.30553272366523743</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>36</v>
       </c>
@@ -1638,25 +1824,25 @@
       <c r="I12">
         <v>0.1296605467796326</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="7">
         <v>0.28369879722595209</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>0.62710630893707275</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
         <v>0.53888249397277832</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12">
         <v>1</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12">
         <v>0.39204207062721252</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12">
         <v>0.4229702353477478</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>0.55944287776947021</v>
       </c>
       <c r="Q12">
@@ -1696,7 +1882,7 @@
         <v>0.25909090042114258</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1724,25 +1910,25 @@
       <c r="I13">
         <v>0.19048163294792181</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="7">
         <v>0.27924555540084839</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>0.54956144094467163</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13">
         <v>0.35273373126983643</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13">
         <v>0.39204207062721252</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13">
         <v>0.99999988079071045</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13">
         <v>0.45417708158493042</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <v>0.56730687618255615</v>
       </c>
       <c r="Q13">
@@ -1782,7 +1968,7 @@
         <v>0.29483133554458618</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -1810,25 +1996,25 @@
       <c r="I14">
         <v>0.18330797553062439</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="7">
         <v>0.32752746343612671</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>0.49838283658027649</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14">
         <v>0.35669732093811041</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14">
         <v>0.4229702353477478</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14">
         <v>0.45417708158493042</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14">
         <v>0.99999970197677612</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <v>0.37759959697723389</v>
       </c>
       <c r="Q14">
@@ -1868,7 +2054,7 @@
         <v>0.23677211999893191</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -1896,25 +2082,25 @@
       <c r="I15">
         <v>0.21271264553070071</v>
       </c>
-      <c r="J15" s="10">
+      <c r="J15" s="9">
         <v>0.45501202344894409</v>
       </c>
-      <c r="K15" s="11">
+      <c r="K15" s="10">
         <v>0.47067788243293762</v>
       </c>
-      <c r="L15" s="11">
+      <c r="L15" s="10">
         <v>0.60841238498687744</v>
       </c>
-      <c r="M15" s="11">
+      <c r="M15" s="10">
         <v>0.55944287776947021</v>
       </c>
-      <c r="N15" s="11">
+      <c r="N15" s="10">
         <v>0.56730687618255615</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="10">
         <v>0.37759959697723389</v>
       </c>
-      <c r="P15" s="12">
+      <c r="P15" s="11">
         <v>0.99999964237213135</v>
       </c>
       <c r="Q15">
@@ -1954,7 +2140,7 @@
         <v>0.2582663893699646</v>
       </c>
     </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -2003,22 +2189,22 @@
       <c r="P16">
         <v>0.16137164831161499</v>
       </c>
-      <c r="Q16" s="5">
+      <c r="Q16" s="4">
         <v>1.0000002384185791</v>
       </c>
-      <c r="R16" s="6">
+      <c r="R16" s="5">
         <v>0.36207723617553711</v>
       </c>
-      <c r="S16" s="6">
+      <c r="S16" s="5">
         <v>0.40972247719764709</v>
       </c>
-      <c r="T16" s="6">
+      <c r="T16" s="5">
         <v>0.44429102540016169</v>
       </c>
-      <c r="U16" s="6">
+      <c r="U16" s="5">
         <v>0.45853555202484131</v>
       </c>
-      <c r="V16" s="7">
+      <c r="V16" s="6">
         <v>0.37442511320114141</v>
       </c>
       <c r="W16">
@@ -2040,7 +2226,7 @@
         <v>0.53024429082870483</v>
       </c>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -2089,22 +2275,22 @@
       <c r="P17">
         <v>0.2110234797000885</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="7">
         <v>0.36207723617553711</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17">
         <v>1</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17">
         <v>0.33568406105041498</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17">
         <v>0.45431828498840332</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17">
         <v>0.32281020283699041</v>
       </c>
-      <c r="V17" s="9">
+      <c r="V17" s="8">
         <v>0.25982010364532471</v>
       </c>
       <c r="W17">
@@ -2126,7 +2312,7 @@
         <v>0.37405514717102051</v>
       </c>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2175,22 +2361,22 @@
       <c r="P18">
         <v>0.39998245239257813</v>
       </c>
-      <c r="Q18" s="8">
+      <c r="Q18" s="7">
         <v>0.40972247719764709</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18">
         <v>0.33568406105041498</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18">
         <v>1.00000011920929</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18">
         <v>0.54711240530014038</v>
       </c>
-      <c r="U18" s="3">
+      <c r="U18">
         <v>0.4954567551612854</v>
       </c>
-      <c r="V18" s="9">
+      <c r="V18" s="8">
         <v>0.4322739839553833</v>
       </c>
       <c r="W18">
@@ -2212,7 +2398,7 @@
         <v>0.44024354219436651</v>
       </c>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -2261,22 +2447,22 @@
       <c r="P19">
         <v>0.27356156706809998</v>
       </c>
-      <c r="Q19" s="8">
+      <c r="Q19" s="7">
         <v>0.44429102540016169</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19">
         <v>0.45431828498840332</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19">
         <v>0.54711240530014038</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19">
         <v>1</v>
       </c>
-      <c r="U19" s="3">
+      <c r="U19">
         <v>0.38069027662277222</v>
       </c>
-      <c r="V19" s="9">
+      <c r="V19" s="8">
         <v>0.55708372592926025</v>
       </c>
       <c r="W19">
@@ -2298,7 +2484,7 @@
         <v>0.47224289178848272</v>
       </c>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -2347,22 +2533,22 @@
       <c r="P20">
         <v>0.1712593287229538</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="Q20" s="7">
         <v>0.45853555202484131</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20">
         <v>0.32281020283699041</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20">
         <v>0.4954567551612854</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20">
         <v>0.38069027662277222</v>
       </c>
-      <c r="U20" s="3">
+      <c r="U20">
         <v>1.0000002384185791</v>
       </c>
-      <c r="V20" s="9">
+      <c r="V20" s="8">
         <v>0.35825216770172119</v>
       </c>
       <c r="W20">
@@ -2384,7 +2570,7 @@
         <v>0.46317470073699951</v>
       </c>
     </row>
-    <row r="21" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2433,22 +2619,22 @@
       <c r="P21">
         <v>0.26991266012191772</v>
       </c>
-      <c r="Q21" s="10">
+      <c r="Q21" s="9">
         <v>0.37442511320114141</v>
       </c>
-      <c r="R21" s="11">
+      <c r="R21" s="10">
         <v>0.25982010364532471</v>
       </c>
-      <c r="S21" s="11">
+      <c r="S21" s="10">
         <v>0.4322739839553833</v>
       </c>
-      <c r="T21" s="11">
+      <c r="T21" s="10">
         <v>0.55708372592926025</v>
       </c>
-      <c r="U21" s="11">
+      <c r="U21" s="10">
         <v>0.35825216770172119</v>
       </c>
-      <c r="V21" s="12">
+      <c r="V21" s="11">
         <v>1</v>
       </c>
       <c r="W21">
@@ -2470,7 +2656,7 @@
         <v>0.47057157754898071</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2537,26 +2723,26 @@
       <c r="V22">
         <v>0.2271653413772583</v>
       </c>
-      <c r="W22" s="5">
+      <c r="W22" s="4">
         <v>0.99999994039535522</v>
       </c>
-      <c r="X22" s="6">
+      <c r="X22" s="5">
         <v>0.47124749422073359</v>
       </c>
-      <c r="Y22" s="6">
+      <c r="Y22" s="5">
         <v>0.24034452438354489</v>
       </c>
-      <c r="Z22" s="6">
+      <c r="Z22" s="5">
         <v>0.1585037708282471</v>
       </c>
-      <c r="AA22" s="6">
+      <c r="AA22" s="5">
         <v>0.40040022134780878</v>
       </c>
-      <c r="AB22" s="7">
+      <c r="AB22" s="6">
         <v>0.41382813453674322</v>
       </c>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -2623,26 +2809,26 @@
       <c r="V23">
         <v>0.18693949282169339</v>
       </c>
-      <c r="W23" s="8">
+      <c r="W23" s="7">
         <v>0.47124749422073359</v>
       </c>
-      <c r="X23" s="3">
+      <c r="X23">
         <v>1.0000002384185791</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Y23">
         <v>0.32805472612380981</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="Z23">
         <v>0.23994928598403931</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AA23">
         <v>0.54803270101547241</v>
       </c>
-      <c r="AB23" s="9">
+      <c r="AB23" s="8">
         <v>0.53632795810699463</v>
       </c>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>48</v>
       </c>
@@ -2709,26 +2895,26 @@
       <c r="V24">
         <v>0.35355085134506231</v>
       </c>
-      <c r="W24" s="8">
+      <c r="W24" s="7">
         <v>0.24034452438354489</v>
       </c>
-      <c r="X24" s="3">
+      <c r="X24">
         <v>0.32805472612380981</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Y24">
         <v>0.99999988079071045</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="Z24">
         <v>0.2040331959724426</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AA24">
         <v>0.49760746955871582</v>
       </c>
-      <c r="AB24" s="9">
+      <c r="AB24" s="8">
         <v>0.75420302152633667</v>
       </c>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -2795,26 +2981,26 @@
       <c r="V25">
         <v>0.119849219918251</v>
       </c>
-      <c r="W25" s="8">
+      <c r="W25" s="7">
         <v>0.1585037708282471</v>
       </c>
-      <c r="X25" s="3">
+      <c r="X25">
         <v>0.23994928598403931</v>
       </c>
-      <c r="Y25" s="3">
+      <c r="Y25">
         <v>0.2040331959724426</v>
       </c>
-      <c r="Z25" s="3">
+      <c r="Z25">
         <v>1.0000002384185791</v>
       </c>
-      <c r="AA25" s="3">
+      <c r="AA25">
         <v>0.36421051621437073</v>
       </c>
-      <c r="AB25" s="9">
+      <c r="AB25" s="8">
         <v>0.30203843116760248</v>
       </c>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -2881,26 +3067,26 @@
       <c r="V26">
         <v>0.212701216340065</v>
       </c>
-      <c r="W26" s="8">
+      <c r="W26" s="7">
         <v>0.40040022134780878</v>
       </c>
-      <c r="X26" s="3">
+      <c r="X26">
         <v>0.54803270101547241</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Y26">
         <v>0.49760746955871582</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="Z26">
         <v>0.36421051621437073</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AA26">
         <v>0.99999994039535522</v>
       </c>
-      <c r="AB26" s="9">
+      <c r="AB26" s="8">
         <v>0.5812917947769165</v>
       </c>
     </row>
-    <row r="27" spans="1:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -2967,28 +3153,28 @@
       <c r="V27">
         <v>0.47057157754898071</v>
       </c>
-      <c r="W27" s="10">
+      <c r="W27" s="9">
         <v>0.41382813453674322</v>
       </c>
-      <c r="X27" s="11">
+      <c r="X27" s="10">
         <v>0.53632795810699463</v>
       </c>
-      <c r="Y27" s="11">
+      <c r="Y27" s="10">
         <v>0.75420302152633667</v>
       </c>
-      <c r="Z27" s="11">
+      <c r="Z27" s="10">
         <v>0.30203843116760248</v>
       </c>
-      <c r="AA27" s="11">
+      <c r="AA27" s="10">
         <v>0.5812917947769165</v>
       </c>
-      <c r="AB27" s="12">
+      <c r="AB27" s="11">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AB27">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="-1"/>
         <cfvo type="num" val="0"/>
@@ -2998,6 +3184,40 @@
         <color rgb="FF92D050"/>
       </colorScale>
     </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
+      <formula>0.5</formula>
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:I27">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="between">
+      <formula>0.5</formula>
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:P27">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="between">
+      <formula>0.5</formula>
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:AB15">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="between">
+      <formula>0.5</formula>
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16:AB21">
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="between">
+      <formula>0.5</formula>
+      <formula>0.99</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:V27">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+      <formula>0.5</formula>
+      <formula>0.99</formula>
+    </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
